--- a/biology/Histoire de la zoologie et de la botanique/Giuseppe_Gabriel_Balsamo-Crivelli/Giuseppe_Gabriel_Balsamo-Crivelli.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giuseppe_Gabriel_Balsamo-Crivelli/Giuseppe_Gabriel_Balsamo-Crivelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Gabriel Balsamo-Crivelli était un naturaliste italien, né le 1er septembre 1800 à Milan et mort le 15 novembre 1874 à Pavie.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir terminé ses études secondaires à Venise, il obtient en 1824 un diplôme en médecine de l'Université de Pavie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir terminé ses études secondaires à Venise, il obtient en 1824 un diplôme en médecine de l'Université de Pavie.
 Giuseppe Gabriel Balsamo-Crivelli devient professeur de minéralogie et de zoologie à l’université de Pavie en 1851, puis professeur appointé de zoologie et d’anatomie comparée en 1863. Il s’intéresse à de nombreux domaines de l’histoire naturelle et identifie le champignon causant la muscardine du ver à soie (Beauveria bassiana).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1863 : Di alcuni Spongiari del Golfo di Napoli. Atti Soc. Ital. Sci. Nat. 5 : 284-302 pls 4-6</t>
         </is>
